--- a/LinkAirwaysCucumber/src/test/resources/ExcelData/FCdata.xlsx
+++ b/LinkAirwaysCucumber/src/test/resources/ExcelData/FCdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Route" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="62">
   <si>
     <t>Trip</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>CVV</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
   <si>
     <t>2026</t>
@@ -224,14 +227,7 @@
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -687,168 +683,166 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1183,31 +1177,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1215,15 +1209,15 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="7">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1231,23 +1225,23 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="7">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="7">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1255,7 +1249,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1263,8 +1257,8 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4"/>
-      <c r="B11" s="4"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
@@ -1299,7 +1293,7 @@
   <sheetPr/>
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -1351,7 +1345,7 @@
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1359,7 +1353,7 @@
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1518,8 +1512,8 @@
   <sheetPr/>
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -1540,7 +1534,7 @@
       <c r="A3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="2" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1548,8 +1542,8 @@
       <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="2">
-        <v>123</v>
+      <c r="B4" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1557,12 +1551,12 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>46</v>
@@ -1570,7 +1564,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
@@ -1578,23 +1572,23 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2">
         <v>641001</v>
@@ -1602,18 +1596,18 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2">
         <v>9876543210</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="A12" s="3" t="s">
         <v>60</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
